--- a/tests/data/test_SSP_database_raw_download.xlsx
+++ b/tests/data/test_SSP_database_raw_download.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dh/Github/pyam/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA70B52-6B64-0E4E-BFE9-6DB1EC46991B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32646A1-F043-7F40-A8FF-167659E3B56A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Primary Energy</t>
   </si>
   <si>
-    <t>EJ/y</t>
-  </si>
-  <si>
     <t>Primary Energy|Coal</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>scen_a</t>
+  </si>
+  <si>
+    <t>EJ</t>
   </si>
 </sst>
 </file>
@@ -115,14 +115,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -452,88 +452,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>2005</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>2010</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.5</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/tests/data/test_SSP_database_raw_download.xlsx
+++ b/tests/data/test_SSP_database_raw_download.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dh/Github/pyam/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32646A1-F043-7F40-A8FF-167659E3B56A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D438BD-5E46-C948-A883-2C747D608D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
     <t>scen_a</t>
   </si>
   <si>
-    <t>EJ</t>
+    <t>EJ/yr</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/tests/data/test_SSP_database_raw_download.xlsx
+++ b/tests/data/test_SSP_database_raw_download.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dh/Github/pyam/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA70B52-6B64-0E4E-BFE9-6DB1EC46991B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D438BD-5E46-C948-A883-2C747D608D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Primary Energy</t>
   </si>
   <si>
-    <t>EJ/y</t>
-  </si>
-  <si>
     <t>Primary Energy|Coal</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>scen_a</t>
+  </si>
+  <si>
+    <t>EJ/yr</t>
   </si>
 </sst>
 </file>
@@ -115,14 +115,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -452,88 +452,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>2005</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>2010</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.5</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
